--- a/biology/Botanique/Tillandsia_parviflora/Tillandsia_parviflora.xlsx
+++ b/biology/Botanique/Tillandsia_parviflora/Tillandsia_parviflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia parviflora Ruiz &amp; Pav. est une plante de la famille des Bromeliaceae.
 L'épithète parviflora signifie « à petite fleur ».
@@ -512,10 +524,12 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia parviflora Ruiz &amp; Pav., Fl. Peruv. 3: 41, n° 5, tab. 269 (1802)
-Diagnose originale[1] :
+Diagnose originale :
 « T. panicula simplici 3-7spiculis, floribus parvis distichis, foliis subulatis basi amplissima. »
 Type : Ruiz &amp; Pav., Fl. Peruv. : tab. 269 (1802) // leg. J.A.Pavon y Jiménez &amp; H.Ruiz Lopez ; Holotypus BM (cf. IPNI).
 </t>
@@ -548,12 +562,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-Racinaea parviflora (Ruiz &amp; Pav.) M.A.Spencer &amp; L.B.Sm.
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Racinaea parviflora (Ruiz &amp; Pav.) M.A.Spencer &amp; L.B.Sm.
 Platystachys parviflora (Ruiz &amp; Pav.) Beer
-Pogospermum parviflorum (Ruiz &amp; Pav.) Brongn.
-Synonymie taxonomique
-(aucune)</t>
+Pogospermum parviflorum (Ruiz &amp; Pav.) Brongn.</t>
         </is>
       </c>
     </row>
@@ -578,10 +595,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,16 +631,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante herbacée en rosette monocarpique vivace par ses rejets latéraux ; épiphyte[2],[3] ou saxicole[1].
-Habitat : milieux forestiers[1], bois secs[3].
-Altitude : 700-2500 m[3].</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,16 +659,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique du sud :
- Bolivie[3]
- Équateur[3]
- Pérou
-Régions andines[1],[4]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Typologie : plante herbacée en rosette monocarpique vivace par ses rejets latéraux ; épiphyte, ou saxicole.
+Habitat : milieux forestiers, bois secs.
+Altitude : 700-2500 m.</t>
         </is>
       </c>
     </row>
@@ -670,10 +693,20 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Comportement en culture</t>
+          <t>Distribution</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique du sud :
+ Bolivie
+ Équateur
+ Pérou
+Régions andines,</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -696,20 +729,88 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Comportement en culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tillandsia_parviflora</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_parviflora</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Taxons infraspécifiques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia parviflora var. parviflora
-(autonyme)
-Tillandsia parviflora var. expansa L.B.Sm.
-Tillandsia parviflora var. expansa L.B.Sm., in Phytologia 22(2): 87, fig. 7 (1971)
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tillandsia parviflora var. parviflora</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(autonyme)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tillandsia_parviflora</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_parviflora</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tillandsia parviflora var. expansa L.B.Sm.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia parviflora var. expansa L.B.Sm., in Phytologia 22(2): 87, fig. 7 (1971)
 Diagnose originale : (à compléter)
 Type : Hort.. A. Blass, n° 6, 1970-08 ; Equateur (cult.) ; Holotypus US National Herbarium (US 00091072).
 Synonymie :
 Racinaea parviflora var. expansa (L.B.Sm.) M.A.Spencer &amp; L.B.Sm.
-Distribution :  Équateur[3]
+Distribution :  Équateur
 </t>
         </is>
       </c>
